--- a/March'21/31.03.2021/HD Capital Statement Feb-2021.xlsx
+++ b/March'21/31.03.2021/HD Capital Statement Feb-2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t xml:space="preserve">Total Earnings </t>
   </si>
@@ -95,31 +95,28 @@
     <t>Total Cost</t>
   </si>
   <si>
-    <t>Sales Commission  March-2021</t>
-  </si>
-  <si>
     <t>Opening Capital March-2021</t>
   </si>
   <si>
-    <t>Incentive February-2021</t>
-  </si>
-  <si>
-    <t>General Cost March-2021</t>
-  </si>
-  <si>
-    <t>Salary March-2021</t>
-  </si>
-  <si>
     <t>Net Profit  March-2021</t>
   </si>
   <si>
-    <t>Capital March-2021</t>
-  </si>
-  <si>
-    <t>Capital Add</t>
-  </si>
-  <si>
     <t>G.Total Capital ( 31 March-2021 Closing)</t>
+  </si>
+  <si>
+    <t>Sales Commission  April-2021</t>
+  </si>
+  <si>
+    <t>General Cost April-2021</t>
+  </si>
+  <si>
+    <t>Incentive March-2021</t>
+  </si>
+  <si>
+    <t>Capital April-2021</t>
+  </si>
+  <si>
+    <t>Salary April-2021</t>
   </si>
 </sst>
 </file>
@@ -1352,8 +1349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1384,10 +1381,10 @@
     </row>
     <row r="4" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="32">
-        <v>1997146.86</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1396,18 +1393,18 @@
     </row>
     <row r="6" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B6" s="34">
-        <v>64277.723500000007</v>
+        <v>65459.937000000005</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B7" s="36">
-        <v>138255</v>
+        <v>37746</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1420,7 +1417,7 @@
       </c>
       <c r="B9" s="40">
         <f>B7+B6</f>
-        <v>202532.72350000002</v>
+        <v>103205.93700000001</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1429,27 +1426,23 @@
     </row>
     <row r="11" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" s="43">
-        <v>62147</v>
+        <v>63061</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B12" s="43">
         <v>38000</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="45">
-        <v>2853.14</v>
-      </c>
+      <c r="A13" s="44"/>
+      <c r="B13" s="45"/>
     </row>
     <row r="14" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37"/>
@@ -1461,7 +1454,7 @@
       </c>
       <c r="B15" s="40">
         <f>B11+B12+B13</f>
-        <v>103000.14</v>
+        <v>101061</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1470,11 +1463,11 @@
     </row>
     <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="46" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B17" s="51">
         <f>B9-B15</f>
-        <v>99532.583500000022</v>
+        <v>2144.9370000000054</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1483,11 +1476,11 @@
     </row>
     <row r="19" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="48" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B19" s="47">
         <f>2000000+B17</f>
-        <v>2099532.5835000002</v>
+        <v>2002144.9369999999</v>
       </c>
     </row>
   </sheetData>
